--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belize\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04945DBB-50F2-422A-94CC-AB027CDFB94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0867B584-574E-4F09-8076-92144A00E96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>lang_code</t>
   </si>
@@ -69,13 +69,7 @@
     <t>BZ</t>
   </si>
   <si>
-    <t>20/6/2024</t>
-  </si>
-  <si>
     <t>Public Holiday</t>
-  </si>
-  <si>
-    <t>21/9/2024</t>
   </si>
 </sst>
 </file>
@@ -559,8 +553,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -890,12 +885,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -931,14 +927,14 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
+      <c r="D2" s="1">
+        <v>45463</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -954,14 +950,14 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
+      <c r="D3" s="1">
+        <v>45556</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -977,14 +973,14 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
+      <c r="D4" s="1">
+        <v>45463</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -1000,14 +996,14 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
+      <c r="D5" s="1">
+        <v>45556</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -1023,14 +1019,14 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
+      <c r="D6" s="1">
+        <v>45463</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -1046,14 +1042,14 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
+      <c r="D7" s="1">
+        <v>45556</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>

--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belize\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0867B584-574E-4F09-8076-92144A00E96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD8C459-684C-4371-A5FD-99CC8E0A1B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>lang_code</t>
   </si>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>TRUE</t>
-  </si>
-  <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>spa</t>
   </si>
   <si>
     <t>BLZ</t>
@@ -877,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,16 +919,16 @@
         <v>2000001</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>45463</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -948,116 +942,24 @@
         <v>2000002</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>45556</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>2000003</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>45463</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>2000004</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>45556</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>2000005</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1">
-        <v>45463</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>2000006</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1">
-        <v>45556</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+  <autoFilter ref="A1:G3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="D1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belize\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD8C459-684C-4371-A5FD-99CC8E0A1B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5D9C2F-D61C-46FD-BD2B-F29FF2ED6859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="23040" windowHeight="12240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>lang_code</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Public Holiday</t>
+  </si>
+  <si>
+    <t>spa</t>
   </si>
 </sst>
 </file>
@@ -871,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,6 +960,52 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2000003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45463</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>2000004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45556</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
